--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Fiets.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Fiets.xlsx
@@ -411,7 +411,7 @@
         <v>6.036604384906537</v>
       </c>
       <c r="D3">
-        <v>6.135223343091023</v>
+        <v>6.135223343091022</v>
       </c>
       <c r="E3">
         <v>6.130441275102513</v>
@@ -425,13 +425,13 @@
         <v>0.6336351776787764</v>
       </c>
       <c r="C4">
-        <v>0.5413383369605936</v>
+        <v>0.5413383369605937</v>
       </c>
       <c r="D4">
-        <v>0.5520776392066072</v>
+        <v>0.5520776392066071</v>
       </c>
       <c r="E4">
-        <v>0.6113085041320792</v>
+        <v>0.6113085041320793</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -442,7 +442,7 @@
         <v>20.90996086339962</v>
       </c>
       <c r="C5">
-        <v>16.7814884457784</v>
+        <v>16.78148844577841</v>
       </c>
       <c r="D5">
         <v>17.11440681540482</v>
@@ -462,7 +462,7 @@
         <v>22.19487181538434</v>
       </c>
       <c r="D6">
-        <v>24.29141612509072</v>
+        <v>24.29141612509071</v>
       </c>
       <c r="E6">
         <v>38.512435760321</v>
@@ -533,7 +533,7 @@
         <v>60.25047217690383</v>
       </c>
       <c r="E10">
-        <v>19.29677163525993</v>
+        <v>19.29677163525992</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -584,7 +584,7 @@
         <v>77.917336457256</v>
       </c>
       <c r="E13">
-        <v>85.82617785143519</v>
+        <v>85.82617785143518</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -592,7 +592,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>23.41659377868622</v>
+        <v>23.41659377868623</v>
       </c>
       <c r="C14">
         <v>28.05573125014903</v>
@@ -615,7 +615,7 @@
         <v>71.57935309550551</v>
       </c>
       <c r="D15">
-        <v>74.00329734771884</v>
+        <v>74.00329734771883</v>
       </c>
       <c r="E15">
         <v>85.7634294900441</v>
@@ -629,7 +629,7 @@
         <v>186.8780355759104</v>
       </c>
       <c r="C16">
-        <v>179.979698477976</v>
+        <v>179.9796984779761</v>
       </c>
       <c r="D16">
         <v>166.1983763098832</v>
@@ -646,7 +646,7 @@
         <v>47.46606847030991</v>
       </c>
       <c r="C17">
-        <v>42.3586530639505</v>
+        <v>42.35865306395052</v>
       </c>
       <c r="D17">
         <v>40.22347152799857</v>
@@ -666,7 +666,7 @@
         <v>38.63426806340183</v>
       </c>
       <c r="D18">
-        <v>44.78713040456448</v>
+        <v>44.78713040456446</v>
       </c>
       <c r="E18">
         <v>64.71021345941541</v>
@@ -677,7 +677,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>115.5791866614065</v>
+        <v>115.5791866614064</v>
       </c>
       <c r="C19">
         <v>108.778938640535</v>
@@ -694,13 +694,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>90.81221809110508</v>
+        <v>90.81221809110505</v>
       </c>
       <c r="C20">
-        <v>83.06755314368124</v>
+        <v>83.06755314368125</v>
       </c>
       <c r="D20">
-        <v>86.12709379621477</v>
+        <v>86.12709379621478</v>
       </c>
       <c r="E20">
         <v>93.22763661760975</v>
@@ -714,7 +714,7 @@
         <v>102.0699310776057</v>
       </c>
       <c r="C21">
-        <v>89.66021609159245</v>
+        <v>89.66021609159247</v>
       </c>
       <c r="D21">
         <v>69.30539578914158</v>
@@ -745,7 +745,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>9.296026162804353</v>
+        <v>9.296026162804351</v>
       </c>
       <c r="C23">
         <v>12.43133399533885</v>
@@ -779,10 +779,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>78.44619551128889</v>
+        <v>78.44619551128891</v>
       </c>
       <c r="C25">
-        <v>68.09387732133847</v>
+        <v>68.09387732133848</v>
       </c>
       <c r="D25">
         <v>67.5078662496139</v>
@@ -796,7 +796,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.5524379965583724</v>
+        <v>0.5524379965583726</v>
       </c>
       <c r="C26">
         <v>0.4663964200091676</v>
@@ -867,7 +867,7 @@
         <v>132.2332873890621</v>
       </c>
       <c r="C30">
-        <v>163.2049470675533</v>
+        <v>163.2049470675534</v>
       </c>
       <c r="D30">
         <v>132.0123291537555</v>
@@ -884,7 +884,7 @@
         <v>208.5822687982229</v>
       </c>
       <c r="C31">
-        <v>263.2079783589463</v>
+        <v>263.2079783589464</v>
       </c>
       <c r="D31">
         <v>225.1498619922946</v>
@@ -898,7 +898,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>117.0528352056189</v>
+        <v>117.052835205619</v>
       </c>
       <c r="C32">
         <v>109.7038536537779</v>
@@ -915,7 +915,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>178.6723585554588</v>
+        <v>178.6723585554589</v>
       </c>
       <c r="C33">
         <v>193.6058685801368</v>
@@ -932,10 +932,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>13.14176836105085</v>
+        <v>13.14176836105084</v>
       </c>
       <c r="C34">
-        <v>8.659439152763268</v>
+        <v>8.659439152763269</v>
       </c>
       <c r="D34">
         <v>12.3629090392538</v>
@@ -949,10 +949,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>57.55567830047417</v>
+        <v>57.55567830047418</v>
       </c>
       <c r="C35">
-        <v>57.83353362899482</v>
+        <v>57.83353362899484</v>
       </c>
       <c r="D35">
         <v>67.98058697842309</v>
@@ -983,16 +983,16 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>473.6411270502819</v>
+        <v>473.641127050282</v>
       </c>
       <c r="C37">
-        <v>592.466469497082</v>
+        <v>592.4664694970821</v>
       </c>
       <c r="D37">
-        <v>494.0953343937562</v>
+        <v>494.0953343937564</v>
       </c>
       <c r="E37">
-        <v>236.7011286025953</v>
+        <v>236.7011286025952</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1003,10 +1003,10 @@
         <v>501.1590094317244</v>
       </c>
       <c r="C38">
-        <v>500.795439832777</v>
+        <v>500.7954398327771</v>
       </c>
       <c r="D38">
-        <v>476.9094097191908</v>
+        <v>476.9094097191909</v>
       </c>
       <c r="E38">
         <v>379.3287317349283</v>
@@ -1020,7 +1020,7 @@
         <v>20.94973819506214</v>
       </c>
       <c r="C39">
-        <v>35.01306988301339</v>
+        <v>35.0130698830134</v>
       </c>
       <c r="D39">
         <v>24.54576199774607</v>
@@ -1051,10 +1051,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.9135821952456218</v>
+        <v>0.9135821952456219</v>
       </c>
       <c r="C41">
-        <v>0.9179925972856323</v>
+        <v>0.9179925972856324</v>
       </c>
       <c r="D41">
         <v>0.9312409175126451</v>
@@ -1071,10 +1071,10 @@
         <v>357.0987006455923</v>
       </c>
       <c r="C42">
-        <v>284.3400247855935</v>
+        <v>284.3400247855936</v>
       </c>
       <c r="D42">
-        <v>347.1522123885817</v>
+        <v>347.1522123885818</v>
       </c>
       <c r="E42">
         <v>576.829013577924</v>
@@ -1091,7 +1091,7 @@
         <v>261.6354890122028</v>
       </c>
       <c r="D43">
-        <v>322.0756983092254</v>
+        <v>322.0756983092255</v>
       </c>
       <c r="E43">
         <v>610.5455091060363</v>
@@ -1105,10 +1105,10 @@
         <v>119.2624162613245</v>
       </c>
       <c r="C44">
-        <v>97.0299019576962</v>
+        <v>97.02990195769624</v>
       </c>
       <c r="D44">
-        <v>97.97902415220454</v>
+        <v>97.97902415220453</v>
       </c>
       <c r="E44">
         <v>106.7598699824152</v>
@@ -1142,7 +1142,7 @@
         <v>166.3219181361832</v>
       </c>
       <c r="D46">
-        <v>179.3858036844393</v>
+        <v>179.3858036844394</v>
       </c>
       <c r="E46">
         <v>165.5595590991878</v>
@@ -1173,13 +1173,13 @@
         <v>34.40674441702076</v>
       </c>
       <c r="C48">
-        <v>30.90240095792562</v>
+        <v>30.90240095792563</v>
       </c>
       <c r="D48">
         <v>35.72398470405077</v>
       </c>
       <c r="E48">
-        <v>47.47850188422231</v>
+        <v>47.4785018842223</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>380.2609461479216</v>
+        <v>380.2609461479215</v>
       </c>
       <c r="C53">
-        <v>373.9746088053141</v>
+        <v>373.9746088053142</v>
       </c>
       <c r="D53">
         <v>329.1803796335797</v>
@@ -1278,7 +1278,7 @@
         <v>395.7442937390257</v>
       </c>
       <c r="D54">
-        <v>424.6727972243601</v>
+        <v>424.67279722436</v>
       </c>
       <c r="E54">
         <v>434.8109193085701</v>
@@ -1289,7 +1289,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>61.74556843979032</v>
+        <v>61.7455684397903</v>
       </c>
       <c r="C55">
         <v>74.99666727913061</v>
@@ -1306,7 +1306,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>44.46522256688195</v>
+        <v>44.46522256688194</v>
       </c>
       <c r="C56">
         <v>35.56104966578445</v>
@@ -1323,7 +1323,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>264.8138106083556</v>
+        <v>264.8138106083557</v>
       </c>
       <c r="C57">
         <v>235.1701349607198</v>
@@ -1366,7 +1366,7 @@
         <v>27.72563598245272</v>
       </c>
       <c r="E59">
-        <v>39.2555422903876</v>
+        <v>39.25554229038758</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>74.45618060388666</v>
+        <v>74.45618060388665</v>
       </c>
       <c r="C62">
-        <v>67.81384012900146</v>
+        <v>67.81384012900148</v>
       </c>
       <c r="D62">
         <v>62.0713142055978</v>
@@ -1425,7 +1425,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>27.87522032460782</v>
+        <v>27.87522032460781</v>
       </c>
       <c r="C63">
         <v>24.04308877300961</v>
@@ -1445,7 +1445,7 @@
         <v>24.09063018156339</v>
       </c>
       <c r="C64">
-        <v>21.2851422881214</v>
+        <v>21.28514228812141</v>
       </c>
       <c r="D64">
         <v>21.33654585747674</v>
@@ -1479,10 +1479,10 @@
         <v>354.2690113271929</v>
       </c>
       <c r="C66">
-        <v>342.9790731960297</v>
+        <v>342.9790731960296</v>
       </c>
       <c r="D66">
-        <v>331.8978930977523</v>
+        <v>331.8978930977521</v>
       </c>
       <c r="E66">
         <v>297.5936112568079</v>
@@ -1499,7 +1499,7 @@
         <v>55.10302408988512</v>
       </c>
       <c r="D67">
-        <v>69.7449373063555</v>
+        <v>69.74493730635545</v>
       </c>
       <c r="E67">
         <v>152.6005689815374</v>
@@ -1513,10 +1513,10 @@
         <v>252.9113922826282</v>
       </c>
       <c r="C68">
-        <v>273.3114489530862</v>
+        <v>273.3114489530861</v>
       </c>
       <c r="D68">
-        <v>240.5182134396699</v>
+        <v>240.5182134396698</v>
       </c>
       <c r="E68">
         <v>160.4908635233192</v>
@@ -1533,7 +1533,7 @@
         <v>209.3914915415635</v>
       </c>
       <c r="D69">
-        <v>205.9908613466778</v>
+        <v>205.9908613466777</v>
       </c>
       <c r="E69">
         <v>192.6774860877998</v>
@@ -1567,10 +1567,10 @@
         <v>11.16943424340884</v>
       </c>
       <c r="D71">
-        <v>10.74732474025607</v>
+        <v>10.74732474025608</v>
       </c>
       <c r="E71">
-        <v>10.96032018778973</v>
+        <v>10.96032018778974</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1584,7 +1584,7 @@
         <v>18.37583206277998</v>
       </c>
       <c r="D72">
-        <v>16.85325572845164</v>
+        <v>16.85325572845163</v>
       </c>
       <c r="E72">
         <v>15.92026045856796</v>
@@ -1601,7 +1601,7 @@
         <v>38.42219431308541</v>
       </c>
       <c r="D73">
-        <v>41.73187132759453</v>
+        <v>41.7318713275945</v>
       </c>
       <c r="E73">
         <v>51.55131958012483</v>
@@ -1629,13 +1629,13 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>45.14787505908383</v>
+        <v>45.14787505908384</v>
       </c>
       <c r="C75">
-        <v>33.87938709899753</v>
+        <v>33.87938709899752</v>
       </c>
       <c r="D75">
-        <v>35.33485399815513</v>
+        <v>35.33485399815511</v>
       </c>
       <c r="E75">
         <v>46.90609457834271</v>
@@ -1652,7 +1652,7 @@
         <v>121.2266529977473</v>
       </c>
       <c r="D76">
-        <v>135.4349363972252</v>
+        <v>135.4349363972251</v>
       </c>
       <c r="E76">
         <v>146.4348894267279</v>
@@ -1666,10 +1666,10 @@
         <v>203.2456478508885</v>
       </c>
       <c r="C77">
-        <v>192.1372304847463</v>
+        <v>192.1372304847464</v>
       </c>
       <c r="D77">
-        <v>193.3075889019819</v>
+        <v>193.3075889019818</v>
       </c>
       <c r="E77">
         <v>191.3678312671638</v>
@@ -1686,7 +1686,7 @@
         <v>36.47049282349352</v>
       </c>
       <c r="D78">
-        <v>36.94322810126764</v>
+        <v>36.94322810126761</v>
       </c>
       <c r="E78">
         <v>37.78077355489071</v>
@@ -1703,10 +1703,10 @@
         <v>4.447621076035794</v>
       </c>
       <c r="D79">
-        <v>5.154869037386183</v>
+        <v>5.15486903738618</v>
       </c>
       <c r="E79">
-        <v>4.927926985420529</v>
+        <v>4.927926985420528</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1717,10 +1717,10 @@
         <v>29.59888075498377</v>
       </c>
       <c r="C80">
-        <v>19.56953273455749</v>
+        <v>19.5695327345575</v>
       </c>
       <c r="D80">
-        <v>18.901186470416</v>
+        <v>18.90118647041599</v>
       </c>
       <c r="E80">
         <v>27.1035984198129</v>
@@ -1765,7 +1765,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>181.4401345854588</v>
+        <v>181.4401345854589</v>
       </c>
       <c r="C83">
         <v>159.6519454405804</v>
@@ -1774,7 +1774,7 @@
         <v>157.2903850602638</v>
       </c>
       <c r="E83">
-        <v>158.8860469838158</v>
+        <v>158.8860469838156</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1782,16 +1782,16 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>41.02124781932113</v>
+        <v>41.02124781932114</v>
       </c>
       <c r="C84">
         <v>33.46416323645354</v>
       </c>
       <c r="D84">
-        <v>36.7010898473949</v>
+        <v>36.70108984739488</v>
       </c>
       <c r="E84">
-        <v>50.33412938800269</v>
+        <v>50.33412938800267</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1822,10 +1822,10 @@
         <v>60.58425398761721</v>
       </c>
       <c r="D86">
-        <v>61.3763900789077</v>
+        <v>61.37639007890771</v>
       </c>
       <c r="E86">
-        <v>65.81188711734531</v>
+        <v>65.81188711734529</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1833,7 +1833,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>90.37627628937403</v>
+        <v>90.37627628937405</v>
       </c>
       <c r="C87">
         <v>98.09579001003254</v>
@@ -1850,7 +1850,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>19.49292233692381</v>
+        <v>19.49292233692382</v>
       </c>
       <c r="C88">
         <v>12.16063512521064</v>
@@ -1873,7 +1873,7 @@
         <v>29.99623330885293</v>
       </c>
       <c r="D89">
-        <v>29.56377473588601</v>
+        <v>29.56377473588602</v>
       </c>
       <c r="E89">
         <v>34.1812501813052</v>
@@ -1935,7 +1935,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>28.2018494542898</v>
+        <v>28.20184945428981</v>
       </c>
       <c r="C93">
         <v>37.4918001144766</v>
@@ -1944,7 +1944,7 @@
         <v>47.82164560083135</v>
       </c>
       <c r="E93">
-        <v>48.2887578644703</v>
+        <v>48.28875786447031</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1955,7 +1955,7 @@
         <v>168.5292460283871</v>
       </c>
       <c r="C94">
-        <v>197.6980018827668</v>
+        <v>197.6980018827669</v>
       </c>
       <c r="D94">
         <v>142.1865872737908</v>
@@ -1969,16 +1969,16 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>374.9814066249633</v>
+        <v>374.9814066249634</v>
       </c>
       <c r="C95">
         <v>386.4075212360807</v>
       </c>
       <c r="D95">
-        <v>524.3788665155231</v>
+        <v>524.3788665155232</v>
       </c>
       <c r="E95">
-        <v>798.0812570527611</v>
+        <v>798.0812570527613</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -1992,7 +1992,7 @@
         <v>343.4154141094007</v>
       </c>
       <c r="D96">
-        <v>405.3158891935497</v>
+        <v>405.3158891935498</v>
       </c>
       <c r="E96">
         <v>425.483271843461</v>
@@ -2020,7 +2020,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>378.023202733341</v>
+        <v>378.0232027333411</v>
       </c>
       <c r="C98">
         <v>360.9413809337209</v>
@@ -2043,7 +2043,7 @@
         <v>221.520955135776</v>
       </c>
       <c r="D99">
-        <v>264.3875002270193</v>
+        <v>264.3875002270194</v>
       </c>
       <c r="E99">
         <v>285.2657666759914</v>
@@ -2080,7 +2080,7 @@
         <v>146.4472902070691</v>
       </c>
       <c r="E101">
-        <v>184.1606337232793</v>
+        <v>184.1606337232794</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2088,7 +2088,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>39.93418655448662</v>
+        <v>39.93418655448663</v>
       </c>
       <c r="C102">
         <v>20.0012640200286</v>
@@ -2156,7 +2156,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>73.38131196845937</v>
+        <v>73.38131196845936</v>
       </c>
       <c r="C106">
         <v>35.30981357718337</v>
@@ -2213,7 +2213,7 @@
         <v>133.6975045707948</v>
       </c>
       <c r="D109">
-        <v>193.733534459682</v>
+        <v>193.7335344596821</v>
       </c>
       <c r="E109">
         <v>369.0917930958349</v>
@@ -2247,7 +2247,7 @@
         <v>583.1922103123563</v>
       </c>
       <c r="D111">
-        <v>547.6782377575013</v>
+        <v>547.6782377575015</v>
       </c>
       <c r="E111">
         <v>368.1186871685144</v>
@@ -2275,16 +2275,16 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>331.8655767245506</v>
+        <v>331.8655767245507</v>
       </c>
       <c r="C113">
         <v>344.8978488522334</v>
       </c>
       <c r="D113">
-        <v>232.301520327321</v>
+        <v>232.3015203273211</v>
       </c>
       <c r="E113">
-        <v>67.24088501802356</v>
+        <v>67.24088501802358</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2292,10 +2292,10 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>202.540548453203</v>
+        <v>202.5405484532031</v>
       </c>
       <c r="C114">
-        <v>174.9268081078097</v>
+        <v>174.9268081078098</v>
       </c>
       <c r="D114">
         <v>238.9656773705224</v>
@@ -2335,7 +2335,7 @@
         <v>569.1442530565538</v>
       </c>
       <c r="E116">
-        <v>551.9962682345763</v>
+        <v>551.9962682345764</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2343,16 +2343,16 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>63.20353030131603</v>
+        <v>63.20353030131604</v>
       </c>
       <c r="C117">
         <v>54.66396328920163</v>
       </c>
       <c r="D117">
-        <v>71.01301675433795</v>
+        <v>71.01301675433797</v>
       </c>
       <c r="E117">
-        <v>124.8098484157225</v>
+        <v>124.8098484157226</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2360,16 +2360,16 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.9367125836332728</v>
+        <v>0.9367125836332729</v>
       </c>
       <c r="C118">
-        <v>0.9590733254899507</v>
+        <v>0.9590733254899509</v>
       </c>
       <c r="D118">
-        <v>1.027313953758271</v>
+        <v>1.027313953758272</v>
       </c>
       <c r="E118">
-        <v>0.987237735674063</v>
+        <v>0.9872377356740631</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2380,7 +2380,7 @@
         <v>16.29058055873251</v>
       </c>
       <c r="C119">
-        <v>8.41598779853927</v>
+        <v>8.415987798539271</v>
       </c>
       <c r="D119">
         <v>10.95296919668113</v>
@@ -2417,7 +2417,7 @@
         <v>678.0639594285999</v>
       </c>
       <c r="D121">
-        <v>675.6915876693903</v>
+        <v>675.6915876693902</v>
       </c>
       <c r="E121">
         <v>502.1091710416467</v>
@@ -2431,7 +2431,7 @@
         <v>643.1057575484907</v>
       </c>
       <c r="C122">
-        <v>700.2152706585903</v>
+        <v>700.2152706585905</v>
       </c>
       <c r="D122">
         <v>644.0873883281646</v>
@@ -2448,7 +2448,7 @@
         <v>606.7156115665808</v>
       </c>
       <c r="C123">
-        <v>633.0088716135551</v>
+        <v>633.0088716135552</v>
       </c>
       <c r="D123">
         <v>480.0635008857989</v>
@@ -2485,7 +2485,7 @@
         <v>743.1295707392213</v>
       </c>
       <c r="D125">
-        <v>689.0574118008864</v>
+        <v>689.0574118008861</v>
       </c>
       <c r="E125">
         <v>455.0527592037328</v>
@@ -2505,7 +2505,7 @@
         <v>21.94879207338769</v>
       </c>
       <c r="E126">
-        <v>17.77820466228279</v>
+        <v>17.7782046622828</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2516,13 +2516,13 @@
         <v>660.7326170368874</v>
       </c>
       <c r="C127">
-        <v>659.6306818474802</v>
+        <v>659.6306818474803</v>
       </c>
       <c r="D127">
         <v>608.2413511527676</v>
       </c>
       <c r="E127">
-        <v>445.2628522100472</v>
+        <v>445.2628522100474</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2533,13 +2533,13 @@
         <v>47.32050312055951</v>
       </c>
       <c r="C128">
-        <v>16.03739449609553</v>
+        <v>16.03739449609554</v>
       </c>
       <c r="D128">
         <v>25.69079338588611</v>
       </c>
       <c r="E128">
-        <v>177.2085966067344</v>
+        <v>177.2085966067345</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2550,10 +2550,10 @@
         <v>45.11954948704511</v>
       </c>
       <c r="C129">
-        <v>35.51137352706868</v>
+        <v>35.51137352706869</v>
       </c>
       <c r="D129">
-        <v>55.05170011261309</v>
+        <v>55.0517001126131</v>
       </c>
       <c r="E129">
         <v>160.6691275901059</v>
@@ -2604,7 +2604,7 @@
         <v>964.6381227520603</v>
       </c>
       <c r="D132">
-        <v>817.9991753287051</v>
+        <v>817.999175328705</v>
       </c>
       <c r="E132">
         <v>451.2433297969328</v>
@@ -2638,7 +2638,7 @@
         <v>172.9860586334843</v>
       </c>
       <c r="D134">
-        <v>286.1715865436363</v>
+        <v>286.1715865436364</v>
       </c>
       <c r="E134">
         <v>598.4747590267403</v>
@@ -2655,7 +2655,7 @@
         <v>1049.74978034521</v>
       </c>
       <c r="D135">
-        <v>960.8327984470395</v>
+        <v>960.8327984470396</v>
       </c>
       <c r="E135">
         <v>618.2778751068521</v>
@@ -2675,7 +2675,7 @@
         <v>826.7742605925605</v>
       </c>
       <c r="E136">
-        <v>627.4716660607705</v>
+        <v>627.4716660607709</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2689,10 +2689,10 @@
         <v>393.0764202304949</v>
       </c>
       <c r="D137">
-        <v>409.5550652503463</v>
+        <v>409.5550652503464</v>
       </c>
       <c r="E137">
-        <v>369.3582597023996</v>
+        <v>369.3582597023997</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2709,7 +2709,7 @@
         <v>687.2670615502389</v>
       </c>
       <c r="E138">
-        <v>349.849900915301</v>
+        <v>349.8499009153011</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2737,7 +2737,7 @@
         <v>130.6038514135854</v>
       </c>
       <c r="C140">
-        <v>138.9194406402703</v>
+        <v>138.9194406402704</v>
       </c>
       <c r="D140">
         <v>118.0653402445167</v>
@@ -2760,7 +2760,7 @@
         <v>1147.530319220711</v>
       </c>
       <c r="E141">
-        <v>718.2716311599576</v>
+        <v>718.2716311599577</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2777,7 +2777,7 @@
         <v>281.9855865267758</v>
       </c>
       <c r="E142">
-        <v>182.0775446138833</v>
+        <v>182.0775446138834</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2794,7 +2794,7 @@
         <v>17.31909575751108</v>
       </c>
       <c r="E143">
-        <v>8.901801028490807</v>
+        <v>8.901801028490809</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2805,13 +2805,13 @@
         <v>486.6606404787316</v>
       </c>
       <c r="C144">
-        <v>585.4417094448922</v>
+        <v>585.4417094448924</v>
       </c>
       <c r="D144">
-        <v>579.8618743028729</v>
+        <v>579.861874302873</v>
       </c>
       <c r="E144">
-        <v>409.435830417388</v>
+        <v>409.4358304173881</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2825,7 +2825,7 @@
         <v>130.6357533472074</v>
       </c>
       <c r="D145">
-        <v>186.3376360119344</v>
+        <v>186.3376360119345</v>
       </c>
       <c r="E145">
         <v>385.9334715716769</v>
@@ -2836,10 +2836,10 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>55.37365047292131</v>
+        <v>55.3736504729213</v>
       </c>
       <c r="C146">
-        <v>62.34600420086319</v>
+        <v>62.3460042008632</v>
       </c>
       <c r="D146">
         <v>62.14243716436181</v>
@@ -2859,7 +2859,7 @@
         <v>105.4605258714141</v>
       </c>
       <c r="D147">
-        <v>138.2983337252728</v>
+        <v>138.2983337252727</v>
       </c>
       <c r="E147">
         <v>229.7470150121831</v>
@@ -2870,13 +2870,13 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>820.792315010985</v>
+        <v>820.7923150109851</v>
       </c>
       <c r="C148">
         <v>969.1736032855356</v>
       </c>
       <c r="D148">
-        <v>918.3154067023155</v>
+        <v>918.3154067023154</v>
       </c>
       <c r="E148">
         <v>601.8421565617055</v>
@@ -2972,10 +2972,10 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>432.887348266226</v>
+        <v>432.8873482662261</v>
       </c>
       <c r="C154">
-        <v>402.0949002750133</v>
+        <v>402.0949002750134</v>
       </c>
       <c r="D154">
         <v>511.5919796763409</v>
@@ -2989,7 +2989,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>511.9696418547472</v>
+        <v>511.9696418547473</v>
       </c>
       <c r="C155">
         <v>565.9341584428499</v>
@@ -3006,7 +3006,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>556.3967595363576</v>
+        <v>556.3967595363578</v>
       </c>
       <c r="C156">
         <v>694.5555580889522</v>
@@ -3060,13 +3060,13 @@
         <v>809.9947011312373</v>
       </c>
       <c r="C159">
-        <v>920.0030385507271</v>
+        <v>920.0030385507273</v>
       </c>
       <c r="D159">
         <v>842.848228128006</v>
       </c>
       <c r="E159">
-        <v>508.687287374369</v>
+        <v>508.6872873743691</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3114,7 +3114,7 @@
         <v>10.17566903844292</v>
       </c>
       <c r="D162">
-        <v>10.71884097145306</v>
+        <v>10.71884097145307</v>
       </c>
       <c r="E162">
         <v>13.2026914154505</v>
@@ -3148,7 +3148,7 @@
         <v>63.23721603487363</v>
       </c>
       <c r="D164">
-        <v>93.73762709798915</v>
+        <v>93.73762709798916</v>
       </c>
       <c r="E164">
         <v>259.2260044538681</v>
@@ -3159,7 +3159,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>897.7553128307466</v>
+        <v>897.7553128307464</v>
       </c>
       <c r="C165">
         <v>961.2942916778559</v>
@@ -3196,10 +3196,10 @@
         <v>1.931151514552296</v>
       </c>
       <c r="C167">
-        <v>1.991431854262421</v>
+        <v>1.991431854262422</v>
       </c>
       <c r="D167">
-        <v>1.054587700081</v>
+        <v>1.054587700080999</v>
       </c>
       <c r="E167">
         <v>0.9943692504688342</v>
@@ -3216,7 +3216,7 @@
         <v>19.60330776798399</v>
       </c>
       <c r="D168">
-        <v>18.74786807281885</v>
+        <v>18.74786807281884</v>
       </c>
       <c r="E168">
         <v>14.07340470902996</v>
@@ -3284,7 +3284,7 @@
         <v>355.6118901326208</v>
       </c>
       <c r="D172">
-        <v>383.5412356953417</v>
+        <v>383.5412356953416</v>
       </c>
       <c r="E172">
         <v>290.4364341274598</v>
@@ -3301,10 +3301,10 @@
         <v>758.1200519264818</v>
       </c>
       <c r="D173">
-        <v>856.5712759909059</v>
+        <v>856.5712759909057</v>
       </c>
       <c r="E173">
-        <v>776.6548335858702</v>
+        <v>776.6548335858701</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3312,7 +3312,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>270.5640508121175</v>
+        <v>270.5640508121176</v>
       </c>
       <c r="C174">
         <v>395.4192225090104</v>
@@ -3352,7 +3352,7 @@
         <v>780.5889013755319</v>
       </c>
       <c r="D176">
-        <v>776.1055211219668</v>
+        <v>776.1055211219667</v>
       </c>
       <c r="E176">
         <v>627.6320624608157</v>
@@ -3406,7 +3406,7 @@
         <v>122.8865320922607</v>
       </c>
       <c r="E179">
-        <v>793.7387198031653</v>
+        <v>793.7387198031654</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3414,7 +3414,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>19.98828211685217</v>
+        <v>19.98828211685218</v>
       </c>
       <c r="C180">
         <v>20.818214552459</v>
@@ -3431,7 +3431,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>2.351562601982608</v>
+        <v>2.351562601982609</v>
       </c>
       <c r="C181">
         <v>1.224600856027</v>
@@ -3465,7 +3465,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>5.553602868163907</v>
+        <v>5.553602868163908</v>
       </c>
       <c r="C183">
         <v>4.5354183570418</v>
@@ -3491,7 +3491,7 @@
         <v>7.764741899766767</v>
       </c>
       <c r="E184">
-        <v>19.28962235937671</v>
+        <v>19.28962235937672</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3508,7 +3508,7 @@
         <v>859.2981035741886</v>
       </c>
       <c r="E185">
-        <v>2136.325676300971</v>
+        <v>2136.325676300972</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3516,13 +3516,13 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>380.2894344326878</v>
+        <v>380.2894344326879</v>
       </c>
       <c r="C186">
         <v>317.448115111334</v>
       </c>
       <c r="D186">
-        <v>406.1775023158997</v>
+        <v>406.1775023158999</v>
       </c>
       <c r="E186">
         <v>718.2756035460948</v>
@@ -3550,7 +3550,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>2.111433456845676</v>
+        <v>2.111433456845677</v>
       </c>
       <c r="C188">
         <v>2.171354982157982</v>
@@ -3570,7 +3570,7 @@
         <v>1.056712123071369</v>
       </c>
       <c r="C189">
-        <v>1.072538925757274</v>
+        <v>1.072538925757275</v>
       </c>
       <c r="D189">
         <v>1.121164279993342</v>
@@ -3587,13 +3587,13 @@
         <v>1.056712123071369</v>
       </c>
       <c r="C190">
-        <v>1.072538925757274</v>
+        <v>1.072538925757275</v>
       </c>
       <c r="D190">
         <v>1.121164279993342</v>
       </c>
       <c r="E190">
-        <v>2.075700443728061</v>
+        <v>2.075700443728062</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3601,7 +3601,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>39.33913832325235</v>
+        <v>39.33913832325236</v>
       </c>
       <c r="C191">
         <v>30.24086656688422</v>
@@ -3635,7 +3635,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>582.5693097360402</v>
+        <v>582.5693097360403</v>
       </c>
       <c r="C193">
         <v>486.2807314869452</v>
@@ -3644,7 +3644,7 @@
         <v>601.6775341007451</v>
       </c>
       <c r="E193">
-        <v>924.1536389717766</v>
+        <v>924.1536389717769</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3658,10 +3658,10 @@
         <v>440.5095462899588</v>
       </c>
       <c r="D194">
-        <v>532.7631414872565</v>
+        <v>532.7631414872563</v>
       </c>
       <c r="E194">
-        <v>561.8800772010402</v>
+        <v>561.8800772010404</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3686,7 +3686,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>642.9381782069186</v>
+        <v>642.9381782069187</v>
       </c>
       <c r="C196">
         <v>760.2283111077993</v>
@@ -3706,7 +3706,7 @@
         <v>525.0588237916373</v>
       </c>
       <c r="C197">
-        <v>553.9068498794215</v>
+        <v>553.9068498794217</v>
       </c>
       <c r="D197">
         <v>510.1851995646542</v>
@@ -3729,7 +3729,7 @@
         <v>254.6705948636209</v>
       </c>
       <c r="E198">
-        <v>274.1914561462697</v>
+        <v>274.1914561462698</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3740,7 +3740,7 @@
         <v>677.038771842427</v>
       </c>
       <c r="C199">
-        <v>782.2909217338108</v>
+        <v>782.2909217338109</v>
       </c>
       <c r="D199">
         <v>690.6193350176934</v>
@@ -3757,7 +3757,7 @@
         <v>631.6056667941654</v>
       </c>
       <c r="C200">
-        <v>684.6829022472514</v>
+        <v>684.6829022472515</v>
       </c>
       <c r="D200">
         <v>597.1501121030319</v>
@@ -3771,13 +3771,13 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>5.480256281865165</v>
+        <v>5.480256281865166</v>
       </c>
       <c r="C201">
         <v>5.798103213041609</v>
       </c>
       <c r="D201">
-        <v>6.242792499419078</v>
+        <v>6.24279249941908</v>
       </c>
       <c r="E201">
         <v>3.544813944538131</v>
@@ -3805,7 +3805,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>548.7668981602343</v>
+        <v>548.7668981602344</v>
       </c>
       <c r="C203">
         <v>603.538206353576</v>
@@ -3825,10 +3825,10 @@
         <v>618.2186247383692</v>
       </c>
       <c r="C204">
-        <v>640.0270012763335</v>
+        <v>640.0270012763336</v>
       </c>
       <c r="D204">
-        <v>639.6346064649198</v>
+        <v>639.6346064649199</v>
       </c>
       <c r="E204">
         <v>543.0137087181934</v>
@@ -3845,7 +3845,7 @@
         <v>71.45692609456864</v>
       </c>
       <c r="D205">
-        <v>99.40739105390134</v>
+        <v>99.40739105390135</v>
       </c>
       <c r="E205">
         <v>242.927032182694</v>
@@ -3882,7 +3882,7 @@
         <v>282.6477728520426</v>
       </c>
       <c r="E207">
-        <v>98.56345083198853</v>
+        <v>98.56345083198852</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3896,10 +3896,10 @@
         <v>660.3742662493244</v>
       </c>
       <c r="D208">
-        <v>523.2561617672308</v>
+        <v>523.2561617672309</v>
       </c>
       <c r="E208">
-        <v>259.3271376259116</v>
+        <v>259.3271376259115</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3958,7 +3958,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>126.8933943825767</v>
+        <v>126.8933943825768</v>
       </c>
       <c r="C212">
         <v>129.0962107290357</v>
@@ -4012,7 +4012,7 @@
         <v>451.6455671520428</v>
       </c>
       <c r="C215">
-        <v>480.1082808385961</v>
+        <v>480.1082808385963</v>
       </c>
       <c r="D215">
         <v>368.0306861915219</v>
@@ -4032,7 +4032,7 @@
         <v>654.7985332691609</v>
       </c>
       <c r="D216">
-        <v>444.7133634532975</v>
+        <v>444.7133634532976</v>
       </c>
       <c r="E216">
         <v>143.8495133125207</v>
@@ -4049,7 +4049,7 @@
         <v>532.4956297203536</v>
       </c>
       <c r="D217">
-        <v>433.5650901894826</v>
+        <v>433.5650901894827</v>
       </c>
       <c r="E217">
         <v>226.9546559279776</v>
@@ -4063,7 +4063,7 @@
         <v>522.5937534478212</v>
       </c>
       <c r="C218">
-        <v>539.1922665918626</v>
+        <v>539.1922665918627</v>
       </c>
       <c r="D218">
         <v>449.8606554788731</v>
@@ -4145,7 +4145,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>7.393673112690481</v>
+        <v>7.393673112690482</v>
       </c>
       <c r="C223">
         <v>6.583691135410572</v>
@@ -4171,7 +4171,7 @@
         <v>470.3818707317653</v>
       </c>
       <c r="E224">
-        <v>520.3554959100983</v>
+        <v>520.3554959100982</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4179,7 +4179,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>412.6246601767972</v>
+        <v>412.6246601767971</v>
       </c>
       <c r="C225">
         <v>496.4027992152248</v>
@@ -4216,7 +4216,7 @@
         <v>55.82084436817566</v>
       </c>
       <c r="C227">
-        <v>21.55282145427218</v>
+        <v>21.55282145427219</v>
       </c>
       <c r="D227">
         <v>12.14754912965828</v>
@@ -4247,7 +4247,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>582.9432379897476</v>
+        <v>582.9432379897477</v>
       </c>
       <c r="C229">
         <v>587.7794056205228</v>
@@ -4270,7 +4270,7 @@
         <v>114.2445115532169</v>
       </c>
       <c r="D230">
-        <v>81.40092608668827</v>
+        <v>81.4009260866883</v>
       </c>
       <c r="E230">
         <v>32.94854749676735</v>
@@ -4281,7 +4281,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>128.20189518086</v>
+        <v>128.2018951808601</v>
       </c>
       <c r="C231">
         <v>107.5405859353402</v>
@@ -4315,10 +4315,10 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>9.793111436640784</v>
+        <v>9.793111436640785</v>
       </c>
       <c r="C233">
-        <v>7.982344596049719</v>
+        <v>7.982344596049718</v>
       </c>
       <c r="D233">
         <v>9.928252233021478</v>
@@ -4338,7 +4338,7 @@
         <v>380.663477212294</v>
       </c>
       <c r="D234">
-        <v>443.629831179444</v>
+        <v>443.6298311794441</v>
       </c>
       <c r="E234">
         <v>661.1210451438261</v>
@@ -4366,7 +4366,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>35.74237584620871</v>
+        <v>35.7423758462087</v>
       </c>
       <c r="C236">
         <v>30.68226407122784</v>
@@ -4383,7 +4383,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>420.2755518963364</v>
+        <v>420.2755518963363</v>
       </c>
       <c r="C237">
         <v>532.1373727929063</v>
@@ -4400,10 +4400,10 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>699.787328224427</v>
+        <v>699.7873282244269</v>
       </c>
       <c r="C238">
-        <v>801.3700236942453</v>
+        <v>801.3700236942454</v>
       </c>
       <c r="D238">
         <v>775.9852750788785</v>
@@ -4420,7 +4420,7 @@
         <v>8.06526260087519</v>
       </c>
       <c r="C239">
-        <v>9.554405880384333</v>
+        <v>9.554405880384337</v>
       </c>
       <c r="D239">
         <v>9.395768879152678</v>
@@ -4454,7 +4454,7 @@
         <v>6.806729493807499</v>
       </c>
       <c r="C241">
-        <v>5.299364632795575</v>
+        <v>5.299364632795576</v>
       </c>
       <c r="D241">
         <v>7.302432176896605</v>
@@ -4494,7 +4494,7 @@
         <v>355.9938592466415</v>
       </c>
       <c r="E243">
-        <v>587.7319161255058</v>
+        <v>587.731916125506</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4508,7 +4508,7 @@
         <v>255.7022993547206</v>
       </c>
       <c r="D244">
-        <v>333.2561580693015</v>
+        <v>333.2561580693016</v>
       </c>
       <c r="E244">
         <v>715.5921687946477</v>
@@ -4559,7 +4559,7 @@
         <v>0.7272473518687613</v>
       </c>
       <c r="D247">
-        <v>0.7531921206056752</v>
+        <v>0.7531921206056755</v>
       </c>
       <c r="E247">
         <v>1.576544474219038</v>
@@ -4587,16 +4587,16 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>0.8602588324368802</v>
+        <v>0.8602588324368803</v>
       </c>
       <c r="C249">
         <v>0.7586975324260161</v>
       </c>
       <c r="D249">
-        <v>0.8055735104242306</v>
+        <v>0.8055735104242308</v>
       </c>
       <c r="E249">
-        <v>0.9024661571462053</v>
+        <v>0.9024661571462052</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4627,7 +4627,7 @@
         <v>806.7380296615496</v>
       </c>
       <c r="D251">
-        <v>949.2863879318199</v>
+        <v>949.2863879318201</v>
       </c>
       <c r="E251">
         <v>1155.051154983543</v>
@@ -4641,7 +4641,7 @@
         <v>715.9679184163645</v>
       </c>
       <c r="C252">
-        <v>678.6178262537157</v>
+        <v>678.6178262537159</v>
       </c>
       <c r="D252">
         <v>838.7769381752358</v>
@@ -4655,7 +4655,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>79.66928059606602</v>
+        <v>79.66928059606603</v>
       </c>
       <c r="C253">
         <v>83.60617514228454</v>
@@ -4712,10 +4712,10 @@
         <v>195.8516567846089</v>
       </c>
       <c r="D256">
-        <v>220.0340218206185</v>
+        <v>220.0340218206186</v>
       </c>
       <c r="E256">
-        <v>260.4317757739805</v>
+        <v>260.4317757739806</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4740,7 +4740,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>82.74858641932859</v>
+        <v>82.7485864193286</v>
       </c>
       <c r="C258">
         <v>79.82049614493398</v>
@@ -4783,7 +4783,7 @@
         <v>279.7422916110237</v>
       </c>
       <c r="E260">
-        <v>215.5675702584215</v>
+        <v>215.5675702584214</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4811,13 +4811,13 @@
         <v>263.3283684279463</v>
       </c>
       <c r="C262">
-        <v>295.1253013904635</v>
+        <v>295.1253013904636</v>
       </c>
       <c r="D262">
         <v>288.7554137891272</v>
       </c>
       <c r="E262">
-        <v>216.3030298137376</v>
+        <v>216.3030298137375</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4828,7 +4828,7 @@
         <v>15.84205834572086</v>
       </c>
       <c r="C263">
-        <v>12.29134579515544</v>
+        <v>12.29134579515545</v>
       </c>
       <c r="D263">
         <v>11.37181311396683</v>
@@ -4862,7 +4862,7 @@
         <v>17.74748315409546</v>
       </c>
       <c r="C265">
-        <v>11.94726046308021</v>
+        <v>11.94726046308022</v>
       </c>
       <c r="D265">
         <v>11.97207429642091</v>
@@ -4876,10 +4876,10 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>83.22577851025932</v>
+        <v>83.22577851025933</v>
       </c>
       <c r="C266">
-        <v>71.55460477804871</v>
+        <v>71.55460477804873</v>
       </c>
       <c r="D266">
         <v>86.09295542674508</v>
@@ -4964,13 +4964,13 @@
         <v>22.21239224833568</v>
       </c>
       <c r="C271">
-        <v>16.00450107330773</v>
+        <v>16.00450107330774</v>
       </c>
       <c r="D271">
         <v>14.82260779038561</v>
       </c>
       <c r="E271">
-        <v>15.78643903789158</v>
+        <v>15.78643903789157</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -4987,7 +4987,7 @@
         <v>31.71348643524364</v>
       </c>
       <c r="E272">
-        <v>35.67735222563497</v>
+        <v>35.67735222563496</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -4995,10 +4995,10 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>63.89679405919232</v>
+        <v>63.89679405919229</v>
       </c>
       <c r="C273">
-        <v>66.58450100874104</v>
+        <v>66.58450100874106</v>
       </c>
       <c r="D273">
         <v>62.69794619864454</v>
@@ -5012,7 +5012,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>27.95484740089664</v>
+        <v>27.95484740089663</v>
       </c>
       <c r="C274">
         <v>27.83161682375949</v>
@@ -5021,7 +5021,7 @@
         <v>31.34897309932227</v>
       </c>
       <c r="E274">
-        <v>35.63906195703303</v>
+        <v>35.63906195703302</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5049,7 +5049,7 @@
         <v>33.90098965202628</v>
       </c>
       <c r="C276">
-        <v>21.91762462306638</v>
+        <v>21.91762462306639</v>
       </c>
       <c r="D276">
         <v>21.63748334557198</v>
@@ -5066,7 +5066,7 @@
         <v>80.04437407324248</v>
       </c>
       <c r="C277">
-        <v>52.87652031191006</v>
+        <v>52.87652031191007</v>
       </c>
       <c r="D277">
         <v>50.52899800341866</v>
@@ -5100,7 +5100,7 @@
         <v>35.96020516597541</v>
       </c>
       <c r="C279">
-        <v>34.25907769216403</v>
+        <v>34.25907769216404</v>
       </c>
       <c r="D279">
         <v>44.35773369648361</v>
@@ -5114,10 +5114,10 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>42.65047589452898</v>
+        <v>42.65047589452899</v>
       </c>
       <c r="C280">
-        <v>34.25907769216403</v>
+        <v>34.25907769216404</v>
       </c>
       <c r="D280">
         <v>36.83947374792707</v>
@@ -5148,13 +5148,13 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>7.439778549719741</v>
+        <v>7.439778549719743</v>
       </c>
       <c r="C282">
         <v>7.769459636287759</v>
       </c>
       <c r="D282">
-        <v>8.076866225554982</v>
+        <v>8.07686622555498</v>
       </c>
       <c r="E282">
         <v>7.535905679000122</v>
@@ -5165,7 +5165,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>31.94728436056124</v>
+        <v>31.94728436056125</v>
       </c>
       <c r="C283">
         <v>28.85799293478311</v>
@@ -5174,7 +5174,7 @@
         <v>30.55162441840362</v>
       </c>
       <c r="E283">
-        <v>34.25411672272783</v>
+        <v>34.25411672272782</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5182,13 +5182,13 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>43.76340323364554</v>
+        <v>43.76340323364555</v>
       </c>
       <c r="C284">
-        <v>39.21727244983345</v>
+        <v>39.21727244983346</v>
       </c>
       <c r="D284">
-        <v>36.87265016014231</v>
+        <v>36.8726501601423</v>
       </c>
       <c r="E284">
         <v>33.22649322104599</v>
@@ -5219,7 +5219,7 @@
         <v>9.199122251761152</v>
       </c>
       <c r="C286">
-        <v>8.746998559701456</v>
+        <v>8.746998559701458</v>
       </c>
       <c r="D286">
         <v>8.270085943412198</v>
@@ -5242,7 +5242,7 @@
         <v>466.7705147852229</v>
       </c>
       <c r="E287">
-        <v>539.166346524457</v>
+        <v>539.1663465244571</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5253,7 +5253,7 @@
         <v>267.6930941157903</v>
       </c>
       <c r="C288">
-        <v>238.0841366583251</v>
+        <v>238.0841366583252</v>
       </c>
       <c r="D288">
         <v>294.1314631669275</v>
@@ -5321,13 +5321,13 @@
         <v>92.43786681185436</v>
       </c>
       <c r="C292">
-        <v>78.74350252456041</v>
+        <v>78.74350252456043</v>
       </c>
       <c r="D292">
         <v>80.09353302374943</v>
       </c>
       <c r="E292">
-        <v>87.82800196481172</v>
+        <v>87.82800196481173</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5335,7 +5335,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>269.8104532884512</v>
+        <v>269.8104532884511</v>
       </c>
       <c r="C293">
         <v>307.9292252420174</v>
@@ -5355,10 +5355,10 @@
         <v>20.10580805464477</v>
       </c>
       <c r="C294">
-        <v>15.46870553664567</v>
+        <v>15.46870553664568</v>
       </c>
       <c r="D294">
-        <v>15.03133991268863</v>
+        <v>15.03133991268864</v>
       </c>
       <c r="E294">
         <v>16.49557966946581</v>
@@ -5372,7 +5372,7 @@
         <v>403.8766342659397</v>
       </c>
       <c r="C295">
-        <v>453.381752364253</v>
+        <v>453.3817523642531</v>
       </c>
       <c r="D295">
         <v>417.6268877182041</v>
@@ -5403,13 +5403,13 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>211.0334456012278</v>
+        <v>211.0334456012279</v>
       </c>
       <c r="C297">
         <v>186.0260356714603</v>
       </c>
       <c r="D297">
-        <v>172.15929384824</v>
+        <v>172.1592938482399</v>
       </c>
       <c r="E297">
         <v>151.2480139831261</v>
@@ -5426,10 +5426,10 @@
         <v>310.8446046735731</v>
       </c>
       <c r="D298">
-        <v>306.5771789879794</v>
+        <v>306.5771789879793</v>
       </c>
       <c r="E298">
-        <v>273.0241179577171</v>
+        <v>273.0241179577172</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5491,10 +5491,10 @@
         <v>8.163349725913944</v>
       </c>
       <c r="C302">
-        <v>7.89175375459473</v>
+        <v>7.891753754594733</v>
       </c>
       <c r="D302">
-        <v>7.04026727297899</v>
+        <v>7.040267272978989</v>
       </c>
       <c r="E302">
         <v>5.836854588172359</v>
@@ -5508,7 +5508,7 @@
         <v>33.39842725641218</v>
       </c>
       <c r="C303">
-        <v>28.83223818950232</v>
+        <v>28.83223818950233</v>
       </c>
       <c r="D303">
         <v>28.67962694352807</v>
@@ -5542,7 +5542,7 @@
         <v>184.1593171984073</v>
       </c>
       <c r="C305">
-        <v>197.4315215845193</v>
+        <v>197.4315215845194</v>
       </c>
       <c r="D305">
         <v>183.4500553985524</v>
@@ -5559,13 +5559,13 @@
         <v>277.5267620321974</v>
       </c>
       <c r="C306">
-        <v>298.0666851835228</v>
+        <v>298.0666851835229</v>
       </c>
       <c r="D306">
         <v>278.1247754429469</v>
       </c>
       <c r="E306">
-        <v>206.0371547048511</v>
+        <v>206.037154704851</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5593,13 +5593,13 @@
         <v>3.728012085131485</v>
       </c>
       <c r="C308">
-        <v>4.383060679637415</v>
+        <v>4.383060679637416</v>
       </c>
       <c r="D308">
         <v>4.321323010260615</v>
       </c>
       <c r="E308">
-        <v>3.325026615009301</v>
+        <v>3.325026615009299</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5610,7 +5610,7 @@
         <v>133.9784368431298</v>
       </c>
       <c r="C309">
-        <v>129.6629611938932</v>
+        <v>129.6629611938933</v>
       </c>
       <c r="D309">
         <v>140.6337141364054</v>
@@ -5624,7 +5624,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>152.6648677113189</v>
+        <v>152.664867711319</v>
       </c>
       <c r="C310">
         <v>155.9863238460804</v>
@@ -5641,7 +5641,7 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>41.40372262398793</v>
+        <v>41.40372262398792</v>
       </c>
       <c r="C311">
         <v>36.64525763384486</v>
@@ -5650,7 +5650,7 @@
         <v>35.74253833711444</v>
       </c>
       <c r="E311">
-        <v>35.5090208573931</v>
+        <v>35.50902085739309</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5664,10 +5664,10 @@
         <v>9.337399610844995</v>
       </c>
       <c r="D312">
-        <v>10.4761396496038</v>
+        <v>10.47613964960381</v>
       </c>
       <c r="E312">
-        <v>16.78545186527078</v>
+        <v>16.78545186527077</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5695,7 +5695,7 @@
         <v>17.45940110650093</v>
       </c>
       <c r="C314">
-        <v>17.42884204536524</v>
+        <v>17.42884204536523</v>
       </c>
       <c r="D314">
         <v>14.96199279228047</v>
@@ -5712,7 +5712,7 @@
         <v>742.1394378460096</v>
       </c>
       <c r="C315">
-        <v>695.3733025710053</v>
+        <v>695.3733025710051</v>
       </c>
       <c r="D315">
         <v>780.1646792281744</v>
@@ -5735,7 +5735,7 @@
         <v>428.7419571508624</v>
       </c>
       <c r="E316">
-        <v>366.3533191370108</v>
+        <v>366.3533191370109</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5763,13 +5763,13 @@
         <v>605.2186894801966</v>
       </c>
       <c r="C318">
-        <v>693.1927722887248</v>
+        <v>693.1927722887249</v>
       </c>
       <c r="D318">
         <v>643.5723224133743</v>
       </c>
       <c r="E318">
-        <v>428.9837365985475</v>
+        <v>428.9837365985476</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5777,7 +5777,7 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>545.2740349410435</v>
+        <v>545.2740349410436</v>
       </c>
       <c r="C319">
         <v>565.628000612725</v>
@@ -5794,7 +5794,7 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>370.3472092330322</v>
+        <v>370.3472092330323</v>
       </c>
       <c r="C320">
         <v>365.1526414981935</v>
@@ -5803,7 +5803,7 @@
         <v>404.3177573652777</v>
       </c>
       <c r="E320">
-        <v>448.6761268624511</v>
+        <v>448.6761268624512</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5817,7 +5817,7 @@
         <v>712.77642903638</v>
       </c>
       <c r="D321">
-        <v>758.0073552874039</v>
+        <v>758.007355287404</v>
       </c>
       <c r="E321">
         <v>632.770137211985</v>
@@ -5834,7 +5834,7 @@
         <v>30.38475934797492</v>
       </c>
       <c r="D322">
-        <v>33.40351899608609</v>
+        <v>33.40351899608608</v>
       </c>
       <c r="E322">
         <v>39.52912471208167</v>
@@ -5871,7 +5871,7 @@
         <v>384.4848021534386</v>
       </c>
       <c r="E324">
-        <v>564.1498959333896</v>
+        <v>564.1498959333898</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5902,7 +5902,7 @@
         <v>349.8785463533196</v>
       </c>
       <c r="D326">
-        <v>426.5657169563794</v>
+        <v>426.5657169563797</v>
       </c>
       <c r="E326">
         <v>613.4891564339713</v>
@@ -5919,7 +5919,7 @@
         <v>291.1249578308588</v>
       </c>
       <c r="D327">
-        <v>348.1217228966378</v>
+        <v>348.1217228966377</v>
       </c>
       <c r="E327">
         <v>511.9101457964007</v>
@@ -5930,16 +5930,16 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>16.52476022426235</v>
+        <v>16.52476022426236</v>
       </c>
       <c r="C328">
         <v>14.87457526184817</v>
       </c>
       <c r="D328">
-        <v>15.58873317813464</v>
+        <v>15.58873317813465</v>
       </c>
       <c r="E328">
-        <v>15.79203070827587</v>
+        <v>15.79203070827588</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -5953,7 +5953,7 @@
         <v>47.98838450582094</v>
       </c>
       <c r="D329">
-        <v>45.55109625641397</v>
+        <v>45.55109625641398</v>
       </c>
       <c r="E329">
         <v>33.4269058255961</v>
@@ -5970,7 +5970,7 @@
         <v>25.37427544668218</v>
       </c>
       <c r="D330">
-        <v>30.31142562415069</v>
+        <v>30.3114256241507</v>
       </c>
       <c r="E330">
         <v>44.21768598317246</v>
@@ -5981,16 +5981,16 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>88.29134782925273</v>
+        <v>88.29134782925274</v>
       </c>
       <c r="C331">
-        <v>74.80642147468987</v>
+        <v>74.80642147468988</v>
       </c>
       <c r="D331">
         <v>107.531361754582</v>
       </c>
       <c r="E331">
-        <v>261.8332127478044</v>
+        <v>261.8332127478045</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6021,10 +6021,10 @@
         <v>386.6064991243038</v>
       </c>
       <c r="D333">
-        <v>477.9299233688017</v>
+        <v>477.9299233688018</v>
       </c>
       <c r="E333">
-        <v>686.9403542182865</v>
+        <v>686.9403542182864</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6058,7 +6058,7 @@
         <v>480.1867262784646</v>
       </c>
       <c r="E335">
-        <v>748.4051270757392</v>
+        <v>748.4051270757395</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6069,10 +6069,10 @@
         <v>42.67117501154723</v>
       </c>
       <c r="C336">
-        <v>37.3559308261733</v>
+        <v>37.35593082617329</v>
       </c>
       <c r="D336">
-        <v>53.19242424061831</v>
+        <v>53.19242424061832</v>
       </c>
       <c r="E336">
         <v>119.8410197605773</v>
@@ -6100,7 +6100,7 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>289.1446606545133</v>
+        <v>289.1446606545132</v>
       </c>
       <c r="C338">
         <v>285.0866183888626</v>
@@ -6134,7 +6134,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>8.771374142654345</v>
+        <v>8.771374142654343</v>
       </c>
       <c r="C340">
         <v>7.15140830286825</v>
@@ -6151,7 +6151,7 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>67.31762706602318</v>
+        <v>67.31762706602316</v>
       </c>
       <c r="C341">
         <v>54.55431702209125</v>
@@ -6168,16 +6168,16 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>43.33087409631135</v>
+        <v>43.33087409631134</v>
       </c>
       <c r="C342">
-        <v>34.27775104813387</v>
+        <v>34.27775104813386</v>
       </c>
       <c r="D342">
         <v>40.96000427399493</v>
       </c>
       <c r="E342">
-        <v>65.37768756572584</v>
+        <v>65.37768756572585</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6194,7 +6194,7 @@
         <v>19.44565859472486</v>
       </c>
       <c r="E343">
-        <v>28.74763566719859</v>
+        <v>28.7476356671986</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6236,7 +6236,7 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>7.516442036743606</v>
+        <v>7.516442036743604</v>
       </c>
       <c r="C346">
         <v>8.634896016411913</v>
@@ -6270,7 +6270,7 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>74.87274642762357</v>
+        <v>74.87274642762355</v>
       </c>
       <c r="C348">
         <v>76.02906078615013</v>
@@ -6321,7 +6321,7 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>24.36413156262106</v>
+        <v>24.36413156262105</v>
       </c>
       <c r="C351">
         <v>24.45701473542075</v>
@@ -6355,7 +6355,7 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>457.068064355037</v>
+        <v>457.0680643550371</v>
       </c>
       <c r="C353">
         <v>472.5544871695495</v>
@@ -6392,7 +6392,7 @@
         <v>52.59483870151478</v>
       </c>
       <c r="C355">
-        <v>54.00897880707076</v>
+        <v>54.00897880707077</v>
       </c>
       <c r="D355">
         <v>72.70729533631871</v>
@@ -6423,7 +6423,7 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>20.20687884264018</v>
+        <v>20.20687884264017</v>
       </c>
       <c r="C357">
         <v>18.94695956914622</v>
@@ -6440,7 +6440,7 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>40.41375768528036</v>
+        <v>40.41375768528034</v>
       </c>
       <c r="C358">
         <v>37.39531493910438</v>
@@ -6457,7 +6457,7 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>32.0991523984188</v>
+        <v>32.09915239841879</v>
       </c>
       <c r="C359">
         <v>34.86795060427404</v>
@@ -6497,10 +6497,10 @@
         <v>649.8368449234739</v>
       </c>
       <c r="D361">
-        <v>674.9874791481844</v>
+        <v>674.9874791481848</v>
       </c>
       <c r="E361">
-        <v>728.3249032714915</v>
+        <v>728.3249032714916</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6511,13 +6511,13 @@
         <v>3.946462104518928</v>
       </c>
       <c r="C362">
-        <v>3.480954225620594</v>
+        <v>3.480954225620595</v>
       </c>
       <c r="D362">
         <v>3.72789161955918</v>
       </c>
       <c r="E362">
-        <v>3.800786114292308</v>
+        <v>3.800786114292307</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6528,13 +6528,13 @@
         <v>61.55072114762248</v>
       </c>
       <c r="C363">
-        <v>55.36451738432314</v>
+        <v>55.36451738432316</v>
       </c>
       <c r="D363">
         <v>59.46360251803556</v>
       </c>
       <c r="E363">
-        <v>68.52386820503112</v>
+        <v>68.52386820503114</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6644,7 +6644,7 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>71.63370763042572</v>
+        <v>71.6337076304257</v>
       </c>
       <c r="C370">
         <v>61.72439239469013</v>
@@ -6653,7 +6653,7 @@
         <v>63.03856865226911</v>
       </c>
       <c r="E370">
-        <v>70.19338755044475</v>
+        <v>70.19338755044474</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6661,7 +6661,7 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>10.65625402766664</v>
+        <v>10.65625402766663</v>
       </c>
       <c r="C371">
         <v>6.743000849840096</v>
@@ -6670,7 +6670,7 @@
         <v>6.788768931782827</v>
       </c>
       <c r="E371">
-        <v>9.651590788186153</v>
+        <v>9.651590788186152</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6687,7 +6687,7 @@
         <v>58.67436005326586</v>
       </c>
       <c r="E372">
-        <v>76.33530896110868</v>
+        <v>76.33530896110865</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6698,7 +6698,7 @@
         <v>549.9516907903125</v>
       </c>
       <c r="C373">
-        <v>541.8314109720994</v>
+        <v>541.8314109720995</v>
       </c>
       <c r="D373">
         <v>544.2823102155326</v>
@@ -6712,7 +6712,7 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>314.0797332764579</v>
+        <v>314.0797332764578</v>
       </c>
       <c r="C374">
         <v>319.0211548006594</v>
@@ -6729,7 +6729,7 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>13.19213000175161</v>
+        <v>13.19213000175162</v>
       </c>
       <c r="C375">
         <v>16.72417261195639</v>
@@ -6752,7 +6752,7 @@
         <v>18.76336961382733</v>
       </c>
       <c r="D376">
-        <v>23.13243431214059</v>
+        <v>23.1324343121406</v>
       </c>
       <c r="E376">
         <v>41.9470570790642</v>
@@ -6769,7 +6769,7 @@
         <v>75.57468316680452</v>
       </c>
       <c r="D377">
-        <v>90.32664826645374</v>
+        <v>90.32664826645376</v>
       </c>
       <c r="E377">
         <v>123.4094577833338</v>
@@ -6797,7 +6797,7 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>7.144031039707193</v>
+        <v>7.144031039707194</v>
       </c>
       <c r="C379">
         <v>7.222635334880615</v>
@@ -6848,7 +6848,7 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>33.31616075076345</v>
+        <v>33.31616075076344</v>
       </c>
       <c r="C382">
         <v>33.2136883355862</v>
@@ -6865,7 +6865,7 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>324.8808052794076</v>
+        <v>324.8808052794075</v>
       </c>
       <c r="C383">
         <v>307.2796596646805</v>
@@ -6891,7 +6891,7 @@
         <v>1.717346451624696</v>
       </c>
       <c r="E384">
-        <v>1.840561294439762</v>
+        <v>1.840561294439763</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -6899,7 +6899,7 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>71.67378698471491</v>
+        <v>71.67378698471489</v>
       </c>
       <c r="C385">
         <v>49.36867698551767</v>
@@ -6919,7 +6919,7 @@
         <v>66.08343733796289</v>
       </c>
       <c r="C386">
-        <v>61.84859391594615</v>
+        <v>61.84859391594616</v>
       </c>
       <c r="D386">
         <v>57.81233801156046</v>
@@ -6936,7 +6936,7 @@
         <v>45.35137856526865</v>
       </c>
       <c r="C387">
-        <v>43.74656642835215</v>
+        <v>43.74656642835216</v>
       </c>
       <c r="D387">
         <v>48.36587755215515</v>
@@ -6950,7 +6950,7 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>797.3235748139919</v>
+        <v>797.3235748139917</v>
       </c>
       <c r="C388">
         <v>812.4030590602108</v>
@@ -7001,7 +7001,7 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>63.91371341194325</v>
+        <v>63.91371341194323</v>
       </c>
       <c r="C391">
         <v>59.04505595621497</v>
@@ -7010,7 +7010,7 @@
         <v>65.29431443552792</v>
       </c>
       <c r="E391">
-        <v>82.51299550972462</v>
+        <v>82.5129955097246</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -7038,10 +7038,10 @@
         <v>102.2857445142992</v>
       </c>
       <c r="C393">
-        <v>93.94755481986996</v>
+        <v>93.94755481986999</v>
       </c>
       <c r="D393">
-        <v>93.47699972273851</v>
+        <v>93.4769997227385</v>
       </c>
       <c r="E393">
         <v>93.73120747634738</v>
@@ -7058,7 +7058,7 @@
         <v>24.85385048144709</v>
       </c>
       <c r="D394">
-        <v>27.52114712649154</v>
+        <v>27.52114712649153</v>
       </c>
       <c r="E394">
         <v>37.68088742767734</v>
@@ -7089,10 +7089,10 @@
         <v>35.30261298141035</v>
       </c>
       <c r="C396">
-        <v>28.93866433794669</v>
+        <v>28.9386643379467</v>
       </c>
       <c r="D396">
-        <v>28.62184575672084</v>
+        <v>28.62184575672083</v>
       </c>
       <c r="E396">
         <v>31.77236514413827</v>
@@ -7112,7 +7112,7 @@
         <v>68.31500821153497</v>
       </c>
       <c r="E397">
-        <v>64.60628045809861</v>
+        <v>64.6062804580986</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7129,7 +7129,7 @@
         <v>21.34844006610468</v>
       </c>
       <c r="E398">
-        <v>22.47174972455604</v>
+        <v>22.47174972455603</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7146,7 +7146,7 @@
         <v>607.5268971313379</v>
       </c>
       <c r="E399">
-        <v>472.5398595898542</v>
+        <v>472.5398595898541</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -7154,7 +7154,7 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>34.00644863846447</v>
+        <v>34.00644863846446</v>
       </c>
       <c r="C400">
         <v>34.12094711045947</v>
@@ -7163,7 +7163,7 @@
         <v>34.89459564789314</v>
       </c>
       <c r="E400">
-        <v>32.72718292404872</v>
+        <v>32.72718292404871</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7197,7 +7197,7 @@
         <v>25.12069451900832</v>
       </c>
       <c r="E402">
-        <v>34.59288619853704</v>
+        <v>34.59288619853703</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -7208,13 +7208,13 @@
         <v>64.86415203262668</v>
       </c>
       <c r="C403">
-        <v>56.29956273225812</v>
+        <v>56.29956273225813</v>
       </c>
       <c r="D403">
         <v>64.88213878280131</v>
       </c>
       <c r="E403">
-        <v>90.62912194351952</v>
+        <v>90.62912194351951</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7222,7 +7222,7 @@
         <v>403</v>
       </c>
       <c r="B404">
-        <v>174.3338220808597</v>
+        <v>174.3338220808596</v>
       </c>
       <c r="C404">
         <v>164.4141779718324</v>
@@ -7239,7 +7239,7 @@
         <v>404</v>
       </c>
       <c r="B405">
-        <v>11.35725225282474</v>
+        <v>11.35725225282473</v>
       </c>
       <c r="C405">
         <v>10.68946667928322</v>
@@ -7256,7 +7256,7 @@
         <v>405</v>
       </c>
       <c r="B406">
-        <v>9.085801802259789</v>
+        <v>9.085801802259786</v>
       </c>
       <c r="C406">
         <v>8.653377787991179</v>
@@ -7265,7 +7265,7 @@
         <v>6.798041213167911</v>
       </c>
       <c r="E406">
-        <v>4.042727726830377</v>
+        <v>4.042727726830376</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -7324,7 +7324,7 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>396.1690536711482</v>
+        <v>396.169053671148</v>
       </c>
       <c r="C410">
         <v>399.6466659131655</v>
@@ -7344,7 +7344,7 @@
         <v>11.0339648478613</v>
       </c>
       <c r="C411">
-        <v>6.495452978128409</v>
+        <v>6.49545297812841</v>
       </c>
       <c r="D411">
         <v>8.132621318274328</v>
@@ -7401,7 +7401,7 @@
         <v>9.931778143795036</v>
       </c>
       <c r="E414">
-        <v>9.510078833492695</v>
+        <v>9.510078833492694</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7426,7 +7426,7 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>8.518274128035694</v>
+        <v>8.518274128035692</v>
       </c>
       <c r="C416">
         <v>7.69212928363503</v>
@@ -7435,7 +7435,7 @@
         <v>7.328707720198249</v>
       </c>
       <c r="E416">
-        <v>7.772266338709808</v>
+        <v>7.772266338709807</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7460,16 +7460,16 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>0.6781304868752022</v>
+        <v>0.6781304868752021</v>
       </c>
       <c r="C418">
-        <v>0.6118864877257868</v>
+        <v>0.6118864877257869</v>
       </c>
       <c r="D418">
         <v>0.582732991693295</v>
       </c>
       <c r="E418">
-        <v>0.53278551625814</v>
+        <v>0.5327855162581399</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7494,7 +7494,7 @@
         <v>419</v>
       </c>
       <c r="B420">
-        <v>13.65903185785837</v>
+        <v>13.65903185785838</v>
       </c>
       <c r="C420">
         <v>11.4011393748693</v>
@@ -7562,13 +7562,13 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>80.65333097021137</v>
+        <v>80.65333097021139</v>
       </c>
       <c r="C424">
         <v>86.40863526216734</v>
       </c>
       <c r="D424">
-        <v>71.26535895034283</v>
+        <v>71.26535895034282</v>
       </c>
       <c r="E424">
         <v>42.38759502472178</v>
@@ -7704,7 +7704,7 @@
         <v>93.00929490024956</v>
       </c>
       <c r="D432">
-        <v>84.94830786880866</v>
+        <v>84.94830786880864</v>
       </c>
       <c r="E432">
         <v>63.05154759927365</v>
@@ -7721,7 +7721,7 @@
         <v>19.2019189471483</v>
       </c>
       <c r="D433">
-        <v>20.52442337769874</v>
+        <v>20.52442337769873</v>
       </c>
       <c r="E433">
         <v>29.14147157949623</v>
@@ -7772,7 +7772,7 @@
         <v>40.08808016645233</v>
       </c>
       <c r="D436">
-        <v>36.92177461043944</v>
+        <v>36.92177461043943</v>
       </c>
       <c r="E436">
         <v>34.58155524912266</v>
@@ -7789,10 +7789,10 @@
         <v>35.45661672722525</v>
       </c>
       <c r="D437">
-        <v>34.27561949954643</v>
+        <v>34.27561949954642</v>
       </c>
       <c r="E437">
-        <v>29.82438873730215</v>
+        <v>29.82438873730214</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -7809,7 +7809,7 @@
         <v>27.72859105581284</v>
       </c>
       <c r="E438">
-        <v>15.45118934583124</v>
+        <v>15.45118934583123</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -7823,7 +7823,7 @@
         <v>11.13172850738467</v>
       </c>
       <c r="D439">
-        <v>11.93869892680831</v>
+        <v>11.9386989268083</v>
       </c>
       <c r="E439">
         <v>15.45118934583123</v>
@@ -7840,7 +7840,7 @@
         <v>29.27232311201154</v>
       </c>
       <c r="D440">
-        <v>22.72203989295775</v>
+        <v>22.72203989295774</v>
       </c>
       <c r="E440">
         <v>12.21721948275028</v>
@@ -7857,10 +7857,10 @@
         <v>9.070297302313435</v>
       </c>
       <c r="D441">
-        <v>7.702386404392455</v>
+        <v>7.702386404392454</v>
       </c>
       <c r="E441">
-        <v>6.108609741375139</v>
+        <v>6.108609741375138</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -7874,10 +7874,10 @@
         <v>10.21412210156608</v>
       </c>
       <c r="D442">
-        <v>9.611742428805337</v>
+        <v>9.611742428805332</v>
       </c>
       <c r="E442">
-        <v>8.986735538927221</v>
+        <v>8.986735538927219</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -7891,10 +7891,10 @@
         <v>11.13172850738467</v>
       </c>
       <c r="D443">
-        <v>9.242863685270946</v>
+        <v>9.242863685270944</v>
       </c>
       <c r="E443">
-        <v>6.108609741375139</v>
+        <v>6.108609741375137</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -7911,7 +7911,7 @@
         <v>10.78334096614944</v>
       </c>
       <c r="E444">
-        <v>6.108609741375139</v>
+        <v>6.108609741375138</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -7925,10 +7925,10 @@
         <v>0.412286241014247</v>
       </c>
       <c r="D445">
-        <v>0.3851193202196228</v>
+        <v>0.3851193202196227</v>
       </c>
       <c r="E445">
-        <v>0.3593299847867729</v>
+        <v>0.3593299847867728</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -7942,10 +7942,10 @@
         <v>6.184293615213706</v>
       </c>
       <c r="D446">
-        <v>5.391670483074719</v>
+        <v>5.391670483074718</v>
       </c>
       <c r="E446">
-        <v>5.749279756588367</v>
+        <v>5.749279756588365</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -7959,10 +7959,10 @@
         <v>0.412286241014247</v>
       </c>
       <c r="D447">
-        <v>0.3851193202196228</v>
+        <v>0.3851193202196227</v>
       </c>
       <c r="E447">
-        <v>0.3593299847867729</v>
+        <v>0.3593299847867728</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -8013,7 +8013,7 @@
         <v>16.87878394126717</v>
       </c>
       <c r="E450">
-        <v>18.1873878433196</v>
+        <v>18.18738784331961</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -8078,7 +8078,7 @@
         <v>27.93276194698598</v>
       </c>
       <c r="D454">
-        <v>25.76319909252062</v>
+        <v>25.7631990925206</v>
       </c>
       <c r="E454">
         <v>25.01266636535418</v>
@@ -8166,7 +8166,7 @@
         <v>10.4149102714445</v>
       </c>
       <c r="E459">
-        <v>9.504813218834588</v>
+        <v>9.50481321883459</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -8248,7 +8248,7 @@
         <v>35.40843855079542</v>
       </c>
       <c r="D464">
-        <v>34.32689524854017</v>
+        <v>34.32689524854016</v>
       </c>
       <c r="E464">
         <v>27.55988768598334</v>
@@ -8265,7 +8265,7 @@
         <v>2.947209602086241</v>
       </c>
       <c r="D465">
-        <v>2.784045787431743</v>
+        <v>2.784045787431742</v>
       </c>
       <c r="E465">
         <v>2.094254134800043</v>
@@ -8310,7 +8310,7 @@
         <v>467</v>
       </c>
       <c r="B468">
-        <v>25.98277320774703</v>
+        <v>25.98277320774702</v>
       </c>
       <c r="C468">
         <v>15.90342511926992</v>
@@ -8361,13 +8361,13 @@
         <v>470</v>
       </c>
       <c r="B471">
-        <v>7.16352667133848</v>
+        <v>7.163526671338481</v>
       </c>
       <c r="C471">
         <v>5.901406425132569</v>
       </c>
       <c r="D471">
-        <v>6.19009586449085</v>
+        <v>6.190095864490848</v>
       </c>
       <c r="E471">
         <v>6.759972451278933</v>
@@ -8384,7 +8384,7 @@
         <v>5.700563662650199</v>
       </c>
       <c r="D472">
-        <v>6.029684893994185</v>
+        <v>6.029684893994184</v>
       </c>
       <c r="E472">
         <v>6.503293254992087</v>
@@ -8398,7 +8398,7 @@
         <v>14.31790143131535</v>
       </c>
       <c r="C473">
-        <v>11.58989013190971</v>
+        <v>11.58989013190972</v>
       </c>
       <c r="D473">
         <v>11.53656802749506</v>
@@ -8412,7 +8412,7 @@
         <v>473</v>
       </c>
       <c r="B474">
-        <v>31.23905766832441</v>
+        <v>31.2390576683244</v>
       </c>
       <c r="C474">
         <v>30.13371434296525</v>
@@ -8469,7 +8469,7 @@
         <v>8.784358391037896</v>
       </c>
       <c r="D477">
-        <v>9.471598834465739</v>
+        <v>9.471598834465738</v>
       </c>
       <c r="E477">
         <v>7.997370781181894</v>
@@ -8483,13 +8483,13 @@
         <v>137.9032075065265</v>
       </c>
       <c r="C478">
-        <v>155.556164536869</v>
+        <v>155.5561645368691</v>
       </c>
       <c r="D478">
         <v>138.288919730895</v>
       </c>
       <c r="E478">
-        <v>89.50595094992437</v>
+        <v>89.50595094992435</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -8568,7 +8568,7 @@
         <v>233.0758436730026</v>
       </c>
       <c r="C483">
-        <v>217.9544000290594</v>
+        <v>217.9544000290595</v>
       </c>
       <c r="D483">
         <v>198.4145370051972</v>
@@ -8585,7 +8585,7 @@
         <v>297.1717006830783</v>
       </c>
       <c r="C484">
-        <v>295.2930581038869</v>
+        <v>295.293058103887</v>
       </c>
       <c r="D484">
         <v>281.7314637995873</v>
@@ -8602,10 +8602,10 @@
         <v>40.97108659810631</v>
       </c>
       <c r="C485">
-        <v>30.92695953059247</v>
+        <v>30.92695953059248</v>
       </c>
       <c r="D485">
-        <v>35.79827810067167</v>
+        <v>35.79827810067166</v>
       </c>
       <c r="E485">
         <v>59.17967619112751</v>
@@ -8622,7 +8622,7 @@
         <v>102.5019107365266</v>
       </c>
       <c r="D486">
-        <v>97.55678300053469</v>
+        <v>97.55678300053468</v>
       </c>
       <c r="E486">
         <v>82.01491236613991</v>
@@ -8639,10 +8639,10 @@
         <v>70.5445847892335</v>
       </c>
       <c r="D487">
-        <v>69.67721359382045</v>
+        <v>69.67721359382044</v>
       </c>
       <c r="E487">
-        <v>74.69152724320089</v>
+        <v>74.69152724320088</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -8670,13 +8670,13 @@
         <v>18.28833148360594</v>
       </c>
       <c r="C489">
-        <v>10.83944906306144</v>
+        <v>10.83944906306145</v>
       </c>
       <c r="D489">
         <v>10.50984740056816</v>
       </c>
       <c r="E489">
-        <v>13.20204114246457</v>
+        <v>13.20204114246456</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -8690,7 +8690,7 @@
         <v>103.3961724097689</v>
       </c>
       <c r="D490">
-        <v>89.38118756495921</v>
+        <v>89.38118756495919</v>
       </c>
       <c r="E490">
         <v>58.88314512065336</v>
@@ -8707,7 +8707,7 @@
         <v>6.349526328271045</v>
       </c>
       <c r="D491">
-        <v>6.185513408517042</v>
+        <v>6.185513408517041</v>
       </c>
       <c r="E491">
         <v>5.150255221791065</v>
@@ -8724,7 +8724,7 @@
         <v>282.7382059700761</v>
       </c>
       <c r="D492">
-        <v>253.9841666449831</v>
+        <v>253.984166644983</v>
       </c>
       <c r="E492">
         <v>180.9790783855375</v>
@@ -8761,7 +8761,7 @@
         <v>225.665374545194</v>
       </c>
       <c r="E494">
-        <v>197.4317218751319</v>
+        <v>197.4317218751318</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -8778,7 +8778,7 @@
         <v>0.8159422616269032</v>
       </c>
       <c r="E495">
-        <v>0.7958934422432404</v>
+        <v>0.7958934422432401</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -8786,16 +8786,16 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>0.952320883677048</v>
+        <v>0.9523208836770477</v>
       </c>
       <c r="C496">
-        <v>0.856135951027861</v>
+        <v>0.8561359510278611</v>
       </c>
       <c r="D496">
-        <v>0.832467089195263</v>
+        <v>0.8324670891952629</v>
       </c>
       <c r="E496">
-        <v>0.806362455183764</v>
+        <v>0.8063624551837637</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -8803,7 +8803,7 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <v>58.92356963586949</v>
+        <v>58.92356963586948</v>
       </c>
       <c r="C497">
         <v>49.41462301168808</v>
@@ -8812,7 +8812,7 @@
         <v>47.32465117436038</v>
       </c>
       <c r="E497">
-        <v>47.75360653459443</v>
+        <v>47.7536065345944</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -8823,10 +8823,10 @@
         <v>219.4261267043022</v>
       </c>
       <c r="C498">
-        <v>225.4091980832112</v>
+        <v>225.4091980832113</v>
       </c>
       <c r="D498">
-        <v>217.4807002830426</v>
+        <v>217.4807002830425</v>
       </c>
       <c r="E498">
         <v>183.1484373523276</v>
@@ -8857,7 +8857,7 @@
         <v>15.60771612541062</v>
       </c>
       <c r="C500">
-        <v>16.39339622423354</v>
+        <v>16.39339622423355</v>
       </c>
       <c r="D500">
         <v>15.75947103500308</v>
@@ -8871,7 +8871,7 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>122.9497623352545</v>
+        <v>122.9497623352544</v>
       </c>
       <c r="C501">
         <v>116.1637967875828</v>
